--- a/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
@@ -30,7 +30,7 @@
     <t>图片</t>
   </si>
   <si>
-    <t>{.name | trim}</t>
+    <t>{.name | trim:}</t>
   </si>
   <si>
     <t>{.number}</t>
@@ -39,7 +39,7 @@
     <t>{.date}</t>
   </si>
   <si>
-    <t>{.images | trim | ends-with:m100-1.2.jpg,m100-1.1.jpg}</t>
+    <t>{.images | trim: | ends-with:m100-1.3.jpg,m100-1.1.jpg}</t>
   </si>
 </sst>
 </file>
@@ -1022,13 +1022,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>姓名</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>{.images | trim: | ends-with:m100-1.3.jpg,m100-1.1.jpg}</t>
+  </si>
+  <si>
+    <t>{.date | date-format:yyyy-MM-dd}</t>
   </si>
 </sst>
 </file>
@@ -1019,21 +1022,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="57.125" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,8 +1050,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1059,6 +1066,9 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>图片</t>
+  </si>
+  <si>
+    <t>日期1</t>
+  </si>
+  <si>
+    <t>图片2</t>
   </si>
   <si>
     <t>{.name | trim:}</t>
@@ -43,6 +49,9 @@
   </si>
   <si>
     <t>{.date | date-format:yyyy-MM-dd}</t>
+  </si>
+  <si>
+    <t>{.images | pattern:.*m100-1.1.*}</t>
   </si>
 </sst>
 </file>
@@ -1022,22 +1031,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="57.125" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1051,24 +1061,30 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>姓名</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>{.images | pattern:.*m100-1.1.*}</t>
+  </si>
+  <si>
+    <t>{.images | contains:m100-1.2}</t>
   </si>
 </sst>
 </file>
@@ -1031,23 +1034,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="57.125" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="61.5" customWidth="1"/>
+    <col min="5" max="6" width="36" customWidth="1"/>
+    <col min="7" max="7" width="32.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1066,8 +1069,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1085,6 +1091,9 @@
       </c>
       <c r="F2" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>姓名</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>{.images | contains:m100-1.2}</t>
+  </si>
+  <si>
+    <t>{.images | trim | list-out:wrap}</t>
+  </si>
+  <si>
+    <t>{.images | trim | list-index:1}</t>
   </si>
 </sst>
 </file>
@@ -1034,13 +1040,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -1048,9 +1054,10 @@
     <col min="4" max="4" width="57.125" customWidth="1"/>
     <col min="5" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="32.625" customWidth="1"/>
+    <col min="8" max="9" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,8 +1079,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1094,6 +1107,12 @@
       </c>
       <c r="G2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -45,7 +45,7 @@
     <t>{.date}</t>
   </si>
   <si>
-    <t>{.images | trim: | ends-with:m100-1.3.jpg,m100-1.1.jpg}</t>
+    <t>{.images | trim: | ends-with:m100-1.3.jpg,m100-1.1.jpg | list-out:comma}</t>
   </si>
   <si>
     <t>{.date | date-format:yyyy-MM-dd}</t>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>{.images | trim | list-index:1}</t>
+  </si>
+  <si>
+    <t>{.images | trim: | prior-ends-with:m100-1.3.jpg,m100-1.1.jpg}</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1051,13 +1054,14 @@
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="57.125" customWidth="1"/>
+    <col min="4" max="4" width="74.875" customWidth="1"/>
     <col min="5" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="32.625" customWidth="1"/>
     <col min="8" max="9" width="37.125" customWidth="1"/>
+    <col min="10" max="10" width="80.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +1089,11 @@
       <c r="I1" t="s">
         <v>3</v>
       </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1113,6 +1120,9 @@
       </c>
       <c r="I2" t="s">
         <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
+++ b/easyexcel-test/src/test/resources/demo/fill/pipe.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>编号</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
@@ -36,6 +39,12 @@
     <t>图片2</t>
   </si>
   <si>
+    <t>错误</t>
+  </si>
+  <si>
+    <t>231{.test}</t>
+  </si>
+  <si>
     <t>{.name | trim:}</t>
   </si>
   <si>
@@ -54,16 +63,19 @@
     <t>{.images | pattern:.*m100-1.1.*}</t>
   </si>
   <si>
-    <t>{.images | contains:m100-1.2}</t>
-  </si>
-  <si>
-    <t>{.images | trim | list-out:wrap}</t>
+    <t>{.images | contains:K100-1.2}</t>
+  </si>
+  <si>
+    <t>{.images | trim | list-echo:wrap}</t>
   </si>
   <si>
     <t>{.images | trim | list-index:1}</t>
   </si>
   <si>
     <t>{.images | trim: | prior-ends-with:m100-1.3.jpg,m100-1.1.jpg}</t>
+  </si>
+  <si>
+    <t>{.error}</t>
   </si>
 </sst>
 </file>
@@ -1043,86 +1055,98 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="74.875" customWidth="1"/>
-    <col min="5" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="32.625" customWidth="1"/>
-    <col min="8" max="9" width="37.125" customWidth="1"/>
-    <col min="10" max="10" width="80.375" customWidth="1"/>
+    <col min="1" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="74.875" customWidth="1"/>
+    <col min="6" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="32.625" customWidth="1"/>
+    <col min="9" max="10" width="37.125" customWidth="1"/>
+    <col min="11" max="11" width="80.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
